--- a/docs/CareConnect-ProcedureRequest-1.xlsx
+++ b/docs/CareConnect-ProcedureRequest-1.xlsx
@@ -229,8 +229,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element.   This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -467,8 +466,7 @@
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
-Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
@@ -559,7 +557,7 @@
     <t>ProcedureRequest.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1)
 </t>
   </si>
   <si>
@@ -709,8 +707,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/STU3/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/STU3/task.html) resource.
-This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/STU3/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/STU3/task.html) resource.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>The status of a procedure or diagnostic order.</t>
@@ -896,7 +893,7 @@
     <t>snomedCTDescriptionID</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-coding-sctdescid}
 </t>
   </si>
   <si>
@@ -1107,7 +1104,7 @@
     <t>ProcedureRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group|Device|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Location-1)
+    <t xml:space="preserve">Reference(Group|Device|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Location-1)
 </t>
   </si>
   <si>
@@ -1139,7 +1136,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-EpisodeOfCare-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Encounter-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-EpisodeOfCare-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Encounter-1)
 </t>
   </si>
   <si>
@@ -1311,7 +1308,7 @@
     <t>ProcedureRequest.requester.agent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1)
+    <t xml:space="preserve">Reference(Device|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1)
 </t>
   </si>
   <si>
@@ -1381,7 +1378,7 @@
     <t>ProcedureRequest.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-RelatedPerson-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-HealthcareService-1)
+    <t xml:space="preserve">Reference(Device|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-RelatedPerson-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-HealthcareService-1)
 </t>
   </si>
   <si>
@@ -1466,7 +1463,7 @@
     <t>ProcedureRequest.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Observation-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Condition-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Observation-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Condition-1)
 </t>
   </si>
   <si>
@@ -1486,7 +1483,7 @@
 AOE</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Observation-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Observation-1)
 </t>
   </si>
   <si>
@@ -1508,7 +1505,7 @@
     <t>ProcedureRequest.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Specimen-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Specimen-1)
 </t>
   </si>
   <si>
@@ -1573,7 +1570,7 @@
     <t>A code from the SNOMED Clinical Terminology UK with the expression (&lt;&lt;442083009 |anatomical or acquired body structure|).</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-BodySite-1</t>
   </si>
   <si>
     <t>ProcedureRequest.bodySite.coding.id</t>
@@ -1631,7 +1628,7 @@
     <t>ProcedureRequest.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-RelatedPerson-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1)
+    <t>Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-RelatedPerson-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1)
 string</t>
   </si>
   <si>
@@ -1690,9 +1687,7 @@
     <t>Key events in the history of the request.</t>
   </si>
   <si>
-    <t>This may not include provenances for all versions of the request – only those deemed “relevant” or important.-This SHALL NOT include the Provenance associated with this current version of the resource.  (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update.  Until then, it can be queried directly as the Provenance that points to this version using _revinclude-All Provenances should have some historical version of this Request as their subject.</t>
+    <t>This may not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource.  (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update.  Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
   </si>
   <si>
     <t>Request.relevantHistory</t>
@@ -1880,7 +1875,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="122.203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.50390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.78515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
